--- a/shift_manager/output.xlsx
+++ b/shift_manager/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1201"/>
+  <dimension ref="A1:H1141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34077,11 +34077,11 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -34117,11 +34117,11 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -34157,11 +34157,11 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -34197,11 +34197,11 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -34237,11 +34237,11 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -34277,11 +34277,11 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -34317,11 +34317,11 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -34357,11 +34357,11 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -34397,11 +34397,11 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -34437,11 +34437,11 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -34477,11 +34477,11 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -34517,11 +34517,11 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -34531,7 +34531,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -34541,7 +34541,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -34557,11 +34557,11 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -34571,7 +34571,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
@@ -34581,7 +34581,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -34597,11 +34597,11 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -34611,7 +34611,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
@@ -34637,11 +34637,11 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -34677,11 +34677,11 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -34717,11 +34717,11 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -34757,11 +34757,11 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -34797,11 +34797,11 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -34837,11 +34837,11 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -34877,11 +34877,11 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -34917,11 +34917,11 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -34957,11 +34957,11 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -34997,11 +34997,11 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -35037,11 +35037,11 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -35061,7 +35061,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -35077,11 +35077,11 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -35091,7 +35091,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -35101,7 +35101,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -35117,11 +35117,11 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -35157,11 +35157,11 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -35197,11 +35197,11 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -35237,11 +35237,11 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>125630</v>
+        <v>125642</v>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>松木 こころ</t>
+          <t>諸田 悠也</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -35277,11 +35277,11 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -35317,11 +35317,11 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -35357,11 +35357,11 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -35397,11 +35397,11 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -35437,11 +35437,11 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -35477,11 +35477,11 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -35517,11 +35517,11 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -35557,11 +35557,11 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -35597,11 +35597,11 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -35637,11 +35637,11 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -35677,11 +35677,11 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -35717,11 +35717,11 @@
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -35757,11 +35757,11 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -35797,11 +35797,11 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -35811,7 +35811,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
@@ -35837,11 +35837,11 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -35877,11 +35877,11 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -35917,11 +35917,11 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -35941,7 +35941,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -35957,11 +35957,11 @@
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -35997,11 +35997,11 @@
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -36037,11 +36037,11 @@
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -36077,11 +36077,11 @@
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -36117,11 +36117,11 @@
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -36157,11 +36157,11 @@
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -36197,11 +36197,11 @@
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -36237,11 +36237,11 @@
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -36261,7 +36261,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -36277,11 +36277,11 @@
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -36301,7 +36301,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -36317,11 +36317,11 @@
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -36357,11 +36357,11 @@
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -36397,11 +36397,11 @@
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -36437,11 +36437,11 @@
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>125642</v>
+        <v>130415</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>諸田 悠也</t>
+          <t>樫田 尚</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -36477,11 +36477,11 @@
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -36517,11 +36517,11 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -36557,11 +36557,11 @@
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G904" t="inlineStr">
@@ -36597,11 +36597,11 @@
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -36637,11 +36637,11 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -36677,11 +36677,11 @@
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -36717,11 +36717,11 @@
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -36757,11 +36757,11 @@
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -36781,7 +36781,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -36797,11 +36797,11 @@
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -36837,11 +36837,11 @@
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -36877,11 +36877,11 @@
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -36917,11 +36917,11 @@
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -36957,11 +36957,11 @@
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -36997,11 +36997,11 @@
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -37037,11 +37037,11 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -37077,11 +37077,11 @@
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -37117,11 +37117,11 @@
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -37141,7 +37141,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -37157,11 +37157,11 @@
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -37197,11 +37197,11 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -37237,11 +37237,11 @@
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -37251,7 +37251,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
@@ -37261,7 +37261,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -37277,11 +37277,11 @@
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -37317,11 +37317,11 @@
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -37331,7 +37331,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
@@ -37357,11 +37357,11 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -37397,11 +37397,11 @@
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -37437,11 +37437,11 @@
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -37477,11 +37477,11 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -37517,11 +37517,11 @@
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -37557,11 +37557,11 @@
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -37597,11 +37597,11 @@
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -37637,11 +37637,11 @@
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>130415</v>
+        <v>130439</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>樫田 尚</t>
+          <t>福知 千佳</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -37677,11 +37677,11 @@
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -37717,11 +37717,11 @@
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -37757,11 +37757,11 @@
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -37797,11 +37797,11 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -37837,11 +37837,11 @@
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -37851,7 +37851,7 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
@@ -37861,7 +37861,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -37877,11 +37877,11 @@
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
@@ -37901,7 +37901,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -37917,11 +37917,11 @@
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -37931,7 +37931,7 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
@@ -37957,11 +37957,11 @@
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -37997,11 +37997,11 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -38037,11 +38037,11 @@
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -38061,7 +38061,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -38077,11 +38077,11 @@
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -38101,7 +38101,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -38117,11 +38117,11 @@
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -38157,11 +38157,11 @@
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -38197,11 +38197,11 @@
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -38237,11 +38237,11 @@
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -38277,11 +38277,11 @@
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -38317,11 +38317,11 @@
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -38357,11 +38357,11 @@
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -38381,7 +38381,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -38397,11 +38397,11 @@
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -38411,7 +38411,7 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
@@ -38421,7 +38421,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -38437,11 +38437,11 @@
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -38477,11 +38477,11 @@
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -38517,11 +38517,11 @@
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -38557,11 +38557,11 @@
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -38597,11 +38597,11 @@
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -38637,11 +38637,11 @@
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -38677,11 +38677,11 @@
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -38717,11 +38717,11 @@
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -38757,11 +38757,11 @@
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -38797,11 +38797,11 @@
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -38837,11 +38837,11 @@
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>130427</v>
+        <v>130441</v>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>中村 公亮</t>
+          <t>袋 隼哉</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -38861,7 +38861,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -38877,11 +38877,11 @@
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -38901,7 +38901,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -38917,11 +38917,11 @@
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -38957,11 +38957,11 @@
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -38981,7 +38981,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -38997,11 +38997,11 @@
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -39037,11 +39037,11 @@
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -39077,11 +39077,11 @@
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -39117,11 +39117,11 @@
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -39157,11 +39157,11 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -39197,11 +39197,11 @@
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -39237,11 +39237,11 @@
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -39277,11 +39277,11 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -39317,11 +39317,11 @@
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>半日</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -39357,11 +39357,11 @@
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -39371,7 +39371,7 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E974" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -39397,11 +39397,11 @@
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -39411,7 +39411,7 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E975" t="inlineStr">
@@ -39437,11 +39437,11 @@
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -39477,11 +39477,11 @@
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -39517,11 +39517,11 @@
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -39557,11 +39557,11 @@
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -39597,11 +39597,11 @@
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -39637,11 +39637,11 @@
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -39651,7 +39651,7 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E981" t="inlineStr">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -39677,11 +39677,11 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -39701,7 +39701,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -39717,11 +39717,11 @@
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
@@ -39757,11 +39757,11 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -39797,11 +39797,11 @@
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -39837,11 +39837,11 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -39861,7 +39861,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -39877,11 +39877,11 @@
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>半日</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -39917,11 +39917,11 @@
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -39957,11 +39957,11 @@
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -39997,11 +39997,11 @@
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -40037,11 +40037,11 @@
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>130439</v>
+        <v>130831</v>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>福知 千佳</t>
+          <t>雨池 凌也</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -40077,11 +40077,11 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -40117,11 +40117,11 @@
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -40157,11 +40157,11 @@
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -40197,11 +40197,11 @@
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -40237,11 +40237,11 @@
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -40277,11 +40277,11 @@
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -40291,7 +40291,7 @@
       </c>
       <c r="D997" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E997" t="inlineStr">
@@ -40301,7 +40301,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -40317,11 +40317,11 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -40331,7 +40331,7 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E998" t="inlineStr">
@@ -40357,11 +40357,11 @@
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -40397,11 +40397,11 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -40437,11 +40437,11 @@
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -40461,7 +40461,7 @@
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1001" t="inlineStr">
@@ -40477,11 +40477,11 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -40501,7 +40501,7 @@
       </c>
       <c r="F1002" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1002" t="inlineStr">
@@ -40517,11 +40517,11 @@
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -40557,11 +40557,11 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -40597,11 +40597,11 @@
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -40637,11 +40637,11 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -40677,11 +40677,11 @@
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -40717,11 +40717,11 @@
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -40757,11 +40757,11 @@
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -40781,7 +40781,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -40797,11 +40797,11 @@
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr">
@@ -40821,7 +40821,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -40837,11 +40837,11 @@
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -40877,11 +40877,11 @@
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -40917,11 +40917,11 @@
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -40957,11 +40957,11 @@
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -40997,11 +40997,11 @@
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -41037,11 +41037,11 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -41077,11 +41077,11 @@
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -41117,11 +41117,11 @@
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -41157,11 +41157,11 @@
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -41197,11 +41197,11 @@
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -41237,11 +41237,11 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>130441</v>
+        <v>131603</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>袋 隼哉</t>
+          <t>中川 大誠</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -41261,7 +41261,7 @@
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
@@ -41277,11 +41277,11 @@
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -41301,7 +41301,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -41317,11 +41317,11 @@
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -41341,7 +41341,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -41357,11 +41357,11 @@
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -41397,11 +41397,11 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -41437,11 +41437,11 @@
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -41451,7 +41451,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr">
@@ -41461,7 +41461,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -41477,11 +41477,11 @@
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -41517,11 +41517,11 @@
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -41557,11 +41557,11 @@
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -41597,11 +41597,11 @@
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -41637,11 +41637,11 @@
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -41677,11 +41677,11 @@
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -41701,7 +41701,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -41717,11 +41717,11 @@
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -41731,7 +41731,7 @@
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr">
@@ -41741,7 +41741,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -41757,11 +41757,11 @@
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -41771,7 +41771,7 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr">
@@ -41781,7 +41781,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -41797,11 +41797,11 @@
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -41811,7 +41811,7 @@
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1035" t="inlineStr">
@@ -41837,11 +41837,11 @@
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -41877,11 +41877,11 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -41917,11 +41917,11 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -41957,11 +41957,11 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -41997,11 +41997,11 @@
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -42011,7 +42011,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
@@ -42021,7 +42021,7 @@
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1040" t="inlineStr">
@@ -42037,11 +42037,11 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -42077,11 +42077,11 @@
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -42101,7 +42101,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -42117,11 +42117,11 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -42157,11 +42157,11 @@
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -42197,11 +42197,11 @@
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -42237,11 +42237,11 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -42261,7 +42261,7 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1046" t="inlineStr">
@@ -42277,11 +42277,11 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -42291,7 +42291,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr">
@@ -42301,7 +42301,7 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1047" t="inlineStr">
@@ -42317,11 +42317,11 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -42357,11 +42357,11 @@
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -42397,11 +42397,11 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -42437,11 +42437,11 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>130831</v>
+        <v>138041</v>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>雨池 凌也</t>
+          <t>清水 正生</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -42477,11 +42477,11 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -42501,7 +42501,7 @@
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1052" t="inlineStr">
@@ -42517,11 +42517,11 @@
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -42541,7 +42541,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
@@ -42557,11 +42557,11 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -42597,11 +42597,11 @@
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -42637,11 +42637,11 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -42677,11 +42677,11 @@
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -42691,7 +42691,7 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1057" t="inlineStr">
@@ -42717,11 +42717,11 @@
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -42757,11 +42757,11 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -42797,11 +42797,11 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -42837,11 +42837,11 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -42877,11 +42877,11 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -42917,11 +42917,11 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -42931,7 +42931,7 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr">
@@ -42941,7 +42941,7 @@
       </c>
       <c r="F1063" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1063" t="inlineStr">
@@ -42957,11 +42957,11 @@
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -42997,11 +42997,11 @@
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -43037,11 +43037,11 @@
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -43077,11 +43077,11 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -43117,11 +43117,11 @@
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -43157,11 +43157,11 @@
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -43197,11 +43197,11 @@
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -43237,11 +43237,11 @@
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -43277,11 +43277,11 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -43317,11 +43317,11 @@
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -43357,11 +43357,11 @@
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -43397,11 +43397,11 @@
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -43421,7 +43421,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -43437,11 +43437,11 @@
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -43461,7 +43461,7 @@
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1076" t="inlineStr">
@@ -43477,11 +43477,11 @@
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -43491,7 +43491,7 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1077" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -43517,11 +43517,11 @@
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -43557,11 +43557,11 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -43597,11 +43597,11 @@
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -43637,11 +43637,11 @@
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>131603</v>
+        <v>138053</v>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>中川 大誠</t>
+          <t>菅野 祐萌</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -43677,11 +43677,11 @@
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -43717,11 +43717,11 @@
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -43757,11 +43757,11 @@
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -43797,11 +43797,11 @@
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -43821,7 +43821,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1085" t="inlineStr">
@@ -43837,11 +43837,11 @@
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -43861,7 +43861,7 @@
       </c>
       <c r="F1086" t="inlineStr">
         <is>
-          <t>半日</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1086" t="inlineStr">
@@ -43877,11 +43877,11 @@
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -43917,11 +43917,11 @@
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -43957,11 +43957,11 @@
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -43997,11 +43997,11 @@
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -44037,11 +44037,11 @@
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -44061,7 +44061,7 @@
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
@@ -44077,11 +44077,11 @@
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -44101,7 +44101,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1092" t="inlineStr">
@@ -44117,11 +44117,11 @@
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -44157,11 +44157,11 @@
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -44171,7 +44171,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>休日</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1094" t="inlineStr">
@@ -44181,7 +44181,7 @@
       </c>
       <c r="F1094" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1094" t="inlineStr">
@@ -44197,11 +44197,11 @@
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -44221,7 +44221,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -44237,11 +44237,11 @@
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -44251,7 +44251,7 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1096" t="inlineStr">
@@ -44277,11 +44277,11 @@
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -44317,11 +44317,11 @@
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -44357,11 +44357,11 @@
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -44397,11 +44397,11 @@
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -44437,11 +44437,11 @@
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -44477,11 +44477,11 @@
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -44501,7 +44501,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -44517,11 +44517,11 @@
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -44541,7 +44541,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -44557,11 +44557,11 @@
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -44581,7 +44581,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1104" t="inlineStr">
@@ -44597,11 +44597,11 @@
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -44637,11 +44637,11 @@
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -44677,11 +44677,11 @@
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -44717,11 +44717,11 @@
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -44757,11 +44757,11 @@
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -44781,7 +44781,7 @@
       </c>
       <c r="F1109" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1109" t="inlineStr">
@@ -44797,11 +44797,11 @@
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -44821,7 +44821,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -44837,11 +44837,11 @@
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>138041</v>
+        <v>142042</v>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>清水 正生</t>
+          <t>別所 貴仁</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -44877,11 +44877,11 @@
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -44901,7 +44901,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1112" t="inlineStr">
@@ -44917,11 +44917,11 @@
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -44941,7 +44941,7 @@
       </c>
       <c r="F1113" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1113" t="inlineStr">
@@ -44957,11 +44957,11 @@
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -44997,11 +44997,11 @@
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -45037,11 +45037,11 @@
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -45051,7 +45051,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1116" t="inlineStr">
@@ -45061,7 +45061,7 @@
       </c>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
@@ -45077,11 +45077,11 @@
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -45091,7 +45091,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
@@ -45117,11 +45117,11 @@
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -45141,7 +45141,7 @@
       </c>
       <c r="F1118" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1118" t="inlineStr">
@@ -45157,11 +45157,11 @@
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -45181,7 +45181,7 @@
       </c>
       <c r="F1119" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1119" t="inlineStr">
@@ -45197,11 +45197,11 @@
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -45237,11 +45237,11 @@
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -45277,11 +45277,11 @@
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -45317,11 +45317,11 @@
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -45331,7 +45331,7 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
@@ -45341,7 +45341,7 @@
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>半日</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1123" t="inlineStr">
@@ -45357,11 +45357,11 @@
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -45397,11 +45397,11 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -45437,11 +45437,11 @@
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -45477,11 +45477,11 @@
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -45501,7 +45501,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>当直</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -45517,11 +45517,11 @@
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -45541,7 +45541,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>明け</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -45557,11 +45557,11 @@
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -45597,11 +45597,11 @@
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -45611,7 +45611,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -45621,7 +45621,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -45637,11 +45637,11 @@
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -45677,11 +45677,11 @@
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -45717,11 +45717,11 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -45757,11 +45757,11 @@
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -45797,11 +45797,11 @@
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -45821,7 +45821,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1135" t="inlineStr">
@@ -45837,11 +45837,11 @@
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -45861,7 +45861,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>明け</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -45877,11 +45877,11 @@
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -45891,7 +45891,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>指定</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>半日</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
@@ -45917,11 +45917,11 @@
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -45957,11 +45957,11 @@
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -45997,11 +45997,11 @@
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -46037,11 +46037,11 @@
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>138053</v>
+        <v>145410</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>菅野 祐萌</t>
+          <t>坂下 大知</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -46070,2406 +46070,6 @@
         </is>
       </c>
       <c r="H1141" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr">
-        <is>
-          <t>2025/04/01</t>
-        </is>
-      </c>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1142" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1142" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr">
-        <is>
-          <t>2025/04/02</t>
-        </is>
-      </c>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1143" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr">
-        <is>
-          <t>2025/04/03</t>
-        </is>
-      </c>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1144" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1144" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr">
-        <is>
-          <t>2025/04/04</t>
-        </is>
-      </c>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1145" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1145" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr">
-        <is>
-          <t>2025/04/05</t>
-        </is>
-      </c>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1146" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1146" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr">
-        <is>
-          <t>2025/04/06</t>
-        </is>
-      </c>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1147" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1147" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr">
-        <is>
-          <t>2025/04/07</t>
-        </is>
-      </c>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1148" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1148" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr">
-        <is>
-          <t>2025/04/08</t>
-        </is>
-      </c>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1149" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1149" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr">
-        <is>
-          <t>2025/04/09</t>
-        </is>
-      </c>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1150" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr">
-        <is>
-          <t>2025/04/10</t>
-        </is>
-      </c>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1151" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr">
-        <is>
-          <t>2025/04/11</t>
-        </is>
-      </c>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1152" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>2025/04/12</t>
-        </is>
-      </c>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>指定</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1153" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr">
-        <is>
-          <t>2025/04/13</t>
-        </is>
-      </c>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1154" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr">
-        <is>
-          <t>2025/04/14</t>
-        </is>
-      </c>
-      <c r="D1155" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1155" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr">
-        <is>
-          <t>2025/04/15</t>
-        </is>
-      </c>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1156" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr">
-        <is>
-          <t>2025/04/16</t>
-        </is>
-      </c>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1157" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1157" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr">
-        <is>
-          <t>2025/04/17</t>
-        </is>
-      </c>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1158" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1158" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr">
-        <is>
-          <t>2025/04/18</t>
-        </is>
-      </c>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1159" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1159" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr">
-        <is>
-          <t>2025/04/19</t>
-        </is>
-      </c>
-      <c r="D1160" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>半日</t>
-        </is>
-      </c>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1160" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr">
-        <is>
-          <t>2025/04/20</t>
-        </is>
-      </c>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1161" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1161" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1161" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr">
-        <is>
-          <t>2025/04/21</t>
-        </is>
-      </c>
-      <c r="D1162" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1162" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1162" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1162" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr">
-        <is>
-          <t>2025/04/22</t>
-        </is>
-      </c>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1163" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1163" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr">
-        <is>
-          <t>2025/04/23</t>
-        </is>
-      </c>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1164" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1164" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr">
-        <is>
-          <t>2025/04/24</t>
-        </is>
-      </c>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1165" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1165" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr">
-        <is>
-          <t>2025/04/25</t>
-        </is>
-      </c>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1166" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr">
-        <is>
-          <t>2025/04/26</t>
-        </is>
-      </c>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>指定</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1167" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr">
-        <is>
-          <t>2025/04/27</t>
-        </is>
-      </c>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1168" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr">
-        <is>
-          <t>2025/04/28</t>
-        </is>
-      </c>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1169" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1169" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr">
-        <is>
-          <t>2025/04/29</t>
-        </is>
-      </c>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1170" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="n">
-        <v>142042</v>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>別所 貴仁</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr">
-        <is>
-          <t>2025/04/30</t>
-        </is>
-      </c>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1171" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1171" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr">
-        <is>
-          <t>2025/04/01</t>
-        </is>
-      </c>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1172" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1172" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr">
-        <is>
-          <t>2025/04/02</t>
-        </is>
-      </c>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1173" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1173" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr">
-        <is>
-          <t>2025/04/03</t>
-        </is>
-      </c>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1174" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1174" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr">
-        <is>
-          <t>2025/04/04</t>
-        </is>
-      </c>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr">
-        <is>
-          <t>2025/04/05</t>
-        </is>
-      </c>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>半日</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1176" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr">
-        <is>
-          <t>2025/04/06</t>
-        </is>
-      </c>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1177" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr">
-        <is>
-          <t>2025/04/07</t>
-        </is>
-      </c>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr">
-        <is>
-          <t>2025/04/08</t>
-        </is>
-      </c>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1179" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1179" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr">
-        <is>
-          <t>2025/04/09</t>
-        </is>
-      </c>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1180" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1180" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr">
-        <is>
-          <t>2025/04/10</t>
-        </is>
-      </c>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1181" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1181" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1181" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr">
-        <is>
-          <t>2025/04/11</t>
-        </is>
-      </c>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1182" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1182" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr">
-        <is>
-          <t>2025/04/12</t>
-        </is>
-      </c>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>指定</t>
-        </is>
-      </c>
-      <c r="E1183" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1183" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1183" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr">
-        <is>
-          <t>2025/04/13</t>
-        </is>
-      </c>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1184" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1184" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr">
-        <is>
-          <t>2025/04/14</t>
-        </is>
-      </c>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1185" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1185" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr">
-        <is>
-          <t>2025/04/15</t>
-        </is>
-      </c>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1186" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1186" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1186" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr">
-        <is>
-          <t>2025/04/16</t>
-        </is>
-      </c>
-      <c r="D1187" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>当直</t>
-        </is>
-      </c>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1187" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr">
-        <is>
-          <t>2025/04/17</t>
-        </is>
-      </c>
-      <c r="D1188" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>明け</t>
-        </is>
-      </c>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1188" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr">
-        <is>
-          <t>2025/04/18</t>
-        </is>
-      </c>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1189" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr">
-        <is>
-          <t>2025/04/19</t>
-        </is>
-      </c>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>半日</t>
-        </is>
-      </c>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t>2025/04/20</t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1191" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr">
-        <is>
-          <t>2025/04/21</t>
-        </is>
-      </c>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1192" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr">
-        <is>
-          <t>2025/04/22</t>
-        </is>
-      </c>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1193" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr">
-        <is>
-          <t>2025/04/23</t>
-        </is>
-      </c>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1194" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1194" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr">
-        <is>
-          <t>2025/04/24</t>
-        </is>
-      </c>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1195" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr">
-        <is>
-          <t>2025/04/25</t>
-        </is>
-      </c>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1196" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1196" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>2025/04/26</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>指定</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1197" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr">
-        <is>
-          <t>2025/04/27</t>
-        </is>
-      </c>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>休日</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1198" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1198" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr">
-        <is>
-          <t>2025/04/28</t>
-        </is>
-      </c>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr">
-        <is>
-          <t>2025/04/29</t>
-        </is>
-      </c>
-      <c r="D1200" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1200" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1200" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1200" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="n">
-        <v>145410</v>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>坂下 大知</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr">
-        <is>
-          <t>2025/04/30</t>
-        </is>
-      </c>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>勤務</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="F1201" t="inlineStr">
-        <is>
-          <t>日勤</t>
-        </is>
-      </c>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="H1201" t="inlineStr">
         <is>
           <t>なし</t>
         </is>

--- a/shift_manager/output.xlsx
+++ b/shift_manager/output.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>指定</t>
+          <t>勤務</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>日勤</t>
+          <t>半日</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">

--- a/shift_manager/output.xlsx
+++ b/shift_manager/output.xlsx
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -19851,7 +19851,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -24851,7 +24851,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -26051,7 +26051,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -27291,7 +27291,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -28531,7 +28531,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -28571,7 +28571,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -29771,7 +29771,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -29811,7 +29811,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -31051,7 +31051,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
@@ -34731,7 +34731,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
@@ -34771,7 +34771,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -35971,7 +35971,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
@@ -36011,7 +36011,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
@@ -37251,7 +37251,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
@@ -38451,7 +38451,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -38491,7 +38491,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
@@ -39691,7 +39691,7 @@
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E982" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E983" t="inlineStr">
@@ -40931,7 +40931,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr">
@@ -40971,7 +40971,7 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1014" t="inlineStr">
@@ -42171,7 +42171,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1045" t="inlineStr">
@@ -44651,7 +44651,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
@@ -44691,7 +44691,7 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1107" t="inlineStr">
@@ -47131,7 +47131,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1168" t="inlineStr">
@@ -47171,7 +47171,7 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>勤務</t>
+          <t>休日</t>
         </is>
       </c>
       <c r="E1169" t="inlineStr">
